--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,30 @@
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,21 +82,27 @@
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -106,48 +112,51 @@
     <t>demand</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -160,43 +169,46 @@
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
@@ -206,6 +218,9 @@
   </si>
   <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -563,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,37 +697,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>115</v>
-      </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -750,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,16 +818,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,31 +915,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L8">
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <v>350</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>33</v>
-      </c>
-      <c r="M8">
-        <v>33</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.725</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9138381201044387</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7131782945736435</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C10">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6923076923076923</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,16 +1068,16 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.890625</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6779661016949152</v>
+        <v>0.675</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8875</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6772486772486772</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,16 +1268,16 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8671875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,7 +1318,7 @@
         <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>0.8620689655172413</v>
@@ -1332,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6181818181818182</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1382,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5861111111111111</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C18">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,16 +1468,16 @@
         <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.48</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.775</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,16 +1568,16 @@
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7714285714285715</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,38 +1597,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3506493506493507</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>58</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L22">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>27</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="L22">
-        <v>37</v>
-      </c>
-      <c r="M22">
-        <v>37</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1624,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2817460317460317</v>
+        <v>0.3375</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>0.7692307692307693</v>
@@ -1682,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1045576407506702</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1700,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,21 +1739,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.2976190476190476</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>177</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7588235294117647</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L25">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="M25">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1750,21 +1789,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>308</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7322033898305085</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L26">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,21 +1839,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01136842105263158</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0.13</v>
+      </c>
+      <c r="F27">
+        <v>0.87</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2348</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7154811715481172</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1802,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.7127659574468085</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1828,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.7078651685393258</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1854,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1880,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6862745098039216</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1906,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1932,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.4794520547945205</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1958,15 +2045,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.4358974358974359</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L34">
         <v>34</v>
@@ -1984,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.40625</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2010,7 +2097,59 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>0.4375</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>0.0225</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
